--- a/整理资料/Javascript.xlsx
+++ b/整理资料/Javascript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Javascript" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>数据类型转换</t>
   </si>
@@ -247,6 +247,9 @@
       </rPr>
       <t>：$(“li”).eq(2)、$(“li”).eq(odd)、$(“li”).eq(even)</t>
     </r>
+  </si>
+  <si>
+    <t>&lt;body&gt;</t>
   </si>
   <si>
     <t>document.body</t>
@@ -842,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
@@ -856,9 +859,6 @@
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1842,7 +1842,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A268" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2189,31 +2189,34 @@
       </c>
     </row>
     <row r="105" ht="14.25">
+      <c r="A105" t="s">
+        <v>71</v>
+      </c>
       <c r="B105" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" ht="14.25">
       <c r="B106" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" ht="14.25">
       <c r="A107" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B107" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" ht="14.25">
       <c r="B108" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" ht="14.25">
       <c r="B109" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" ht="14.25">
@@ -2221,7 +2224,7 @@
     </row>
     <row r="126" ht="14.25">
       <c r="B126" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" ht="14.25">
@@ -2229,49 +2232,49 @@
     </row>
     <row r="145" ht="14.25">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" ht="14.25">
       <c r="A146" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B146" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147" ht="14.25">
       <c r="B147" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" ht="14.25">
       <c r="A148" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B148" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149" ht="14.25">
       <c r="B149" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" ht="14.25">
       <c r="A150" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B150" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="151" ht="14.25">
       <c r="A151" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="152" ht="14.25">
@@ -2279,231 +2282,231 @@
     </row>
     <row r="164" ht="14.25">
       <c r="A164" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="165" ht="14.25">
       <c r="A165" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B165" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C165" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="166" ht="14.25">
       <c r="A166" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B166" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" ht="14.25">
       <c r="B167" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C167" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="168" ht="14.25">
       <c r="B168" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" ht="14.25">
       <c r="B169" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" ht="14.25">
       <c r="B170" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="171" ht="14.25">
       <c r="B171" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172" ht="14.25">
       <c r="A172" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="173" ht="14.25">
       <c r="A173" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B173" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="174" ht="14.25">
       <c r="B174" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C174" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="175" ht="14.25">
       <c r="B175" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C175" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="176" ht="14.25">
       <c r="B176" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C176" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="177" ht="14.25">
       <c r="A177" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B177" s="5"/>
     </row>
     <row r="178" ht="14.25"/>
     <row r="190" ht="14.25">
       <c r="A190" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B190" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="191" ht="14.25">
       <c r="B191" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="192" ht="14.25">
       <c r="B192" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="193" ht="14.25">
       <c r="A193" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="194" ht="14.25">
       <c r="B194" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="195" ht="14.25">
       <c r="A195" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B195" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="196" ht="14.25">
       <c r="A196" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B196" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="197" ht="14.25">
       <c r="B197" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="198" ht="14.25">
       <c r="B198" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="200" ht="14.25">
       <c r="A200" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="201" ht="14.25">
       <c r="A201" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B201" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="202" ht="14.25">
       <c r="B202" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="203" ht="14.25">
       <c r="B203" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="204" ht="14.25">
       <c r="A204" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205" ht="14.25">
       <c r="B205" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="206" ht="14.25">
       <c r="B206" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="207" ht="14.25">
       <c r="B207" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="208" ht="14.25">
       <c r="B208" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="209" ht="14.25"/>
     <row r="210" ht="14.25">
       <c r="A210" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B210" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="211" ht="14.25">
       <c r="B211" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" ht="14.25">
       <c r="B212" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="213" ht="14.25">
@@ -2512,10 +2515,10 @@
     <row r="214" ht="14.25"/>
     <row r="228" ht="14.25">
       <c r="A228" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B228" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="229" ht="14.25">
@@ -2528,13 +2531,13 @@
     <row r="249" ht="14.25"/>
     <row r="252" ht="14.25">
       <c r="A252" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B252" s="5"/>
     </row>
     <row r="253" ht="14.25">
       <c r="A253" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="265" ht="14.25"/>
@@ -2543,93 +2546,93 @@
     <row r="268" ht="14.25"/>
     <row r="269" ht="14.25">
       <c r="A269" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="270" ht="14.25">
       <c r="A270" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B270" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="271" ht="14.25">
       <c r="B271" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="272" ht="14.25">
       <c r="B272" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="273" ht="14.25">
       <c r="B273" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="274" ht="14.25">
       <c r="A274" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B274" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="275" ht="14.25">
       <c r="B275" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="276" ht="14.25">
       <c r="A276" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="277" ht="14.25">
       <c r="A277" t="s">
+        <v>156</v>
+      </c>
+      <c r="B277" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="278" ht="14.25">
       <c r="A278" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B278" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="279" ht="14.25">
       <c r="A279" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B279" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="280" ht="14.25">
       <c r="A280" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B280" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="282" ht="14.25">
       <c r="A282" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="284" ht="14.25">
       <c r="A284" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2677,7 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>55</v>
@@ -2686,33 +2689,33 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
-      <c r="B6" s="10" t="s">
-        <v>148</v>
+      <c r="B6" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2725,10 +2728,10 @@
         <v>58</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
@@ -2736,10 +2739,10 @@
         <v>60</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10">
@@ -2747,15 +2750,15 @@
         <v>62</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>64</v>
@@ -2776,291 +2779,291 @@
     </row>
     <row r="14">
       <c r="B14" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15">
       <c r="B15" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="9"/>
     </row>
     <row r="16">
       <c r="C16" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="11" t="s">
-        <v>177</v>
+      <c r="C21" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" ht="57">
       <c r="D25" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" ht="42.75">
       <c r="A39" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" ht="57">
       <c r="D40" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" ht="28.5">
       <c r="D45" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="D47" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="D48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="D49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="D50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="D51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="D52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="D53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/整理资料/Javascript.xlsx
+++ b/整理资料/Javascript.xlsx
@@ -1842,7 +1842,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A96" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/整理资料/Javascript.xlsx
+++ b/整理资料/Javascript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Javascript" sheetId="1" state="visible" r:id="rId1"/>
@@ -588,7 +588,7 @@
     <t>入口函数</t>
   </si>
   <si>
-    <t xml:space="preserve">$(function(){})   等同于  $(document).ready(function(){})</t>
+    <t xml:space="preserve">$(function(){})   =  $(document).ready(function(){})   相当于 DOMContent</t>
   </si>
   <si>
     <t>基本选择器</t>
@@ -845,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
@@ -862,6 +862,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2695,12 +2696,12 @@
         <v>147</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="7"/>
@@ -2834,7 +2835,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>178</v>
       </c>
       <c r="D21" s="9" t="s">
